--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -266,22 +272,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto nascita genitore</t>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -837,7 +843,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -929,7 +935,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1038,19 +1044,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1061,16 +1067,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1093,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1116,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1139,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1153,16 +1159,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1176,19 +1182,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1199,19 +1205,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1222,7 +1228,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1231,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1245,19 +1251,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>86</v>
@@ -1277,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>88</v>
@@ -1300,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -1314,39 +1320,39 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
@@ -1355,12 +1361,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>72</v>
@@ -1369,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>73</v>
@@ -1378,12 +1384,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>74</v>
@@ -1392,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>75</v>
@@ -1401,12 +1407,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>76</v>
@@ -1415,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>77</v>
@@ -1424,21 +1430,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>79</v>
@@ -1447,58 +1453,58 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>83</v>
@@ -1507,44 +1513,44 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>86</v>
@@ -1553,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>87</v>
@@ -1562,12 +1568,12 @@
         <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>88</v>
@@ -1576,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>89</v>
@@ -1585,50 +1591,50 @@
         <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>16</v>
@@ -1636,22 +1642,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>16</v>
@@ -1659,22 +1665,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>16</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>103</v>
@@ -1691,13 +1697,13 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>16</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1728,7 +1734,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
@@ -1737,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>109</v>
@@ -1746,6 +1752,29 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
   </si>
   <si>
     <t>Stato Nascita</t>
@@ -406,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -705,13 +714,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -725,7 +734,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -734,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -748,16 +757,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -771,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -780,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -794,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -803,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -817,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -826,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -840,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -849,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -863,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -886,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -895,7 +904,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -909,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -918,7 +927,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -932,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -941,7 +950,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -955,16 +964,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -978,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -987,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1001,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -1010,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1024,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -1033,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1047,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -1056,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1076,10 +1085,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1090,19 +1099,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1113,19 +1122,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1136,19 +1145,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1159,19 +1168,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1182,19 +1191,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1205,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1228,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1251,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1274,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1297,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1320,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1343,278 +1352,278 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -1622,42 +1631,42 @@
         <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>16</v>
@@ -1665,22 +1674,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>16</v>
@@ -1688,22 +1697,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>16</v>
@@ -1711,22 +1720,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -1734,16 +1743,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>109</v>
@@ -1757,24 +1766,47 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -898,7 +898,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
@@ -921,7 +921,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -944,7 +944,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Codice Fiscale</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -668,7 +674,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -714,13 +720,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -734,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -783,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -1099,19 +1105,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1122,16 +1128,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1154,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1177,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1200,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1214,16 +1220,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1237,19 +1243,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1260,19 +1266,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1292,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1312,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1335,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1338,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1352,16 +1358,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1375,39 +1381,39 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>76</v>
@@ -1416,12 +1422,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>77</v>
@@ -1430,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>78</v>
@@ -1439,12 +1445,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>79</v>
@@ -1453,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>80</v>
@@ -1462,12 +1468,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
@@ -1476,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>82</v>
@@ -1485,21 +1491,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>84</v>
@@ -1508,58 +1514,58 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>88</v>
@@ -1568,44 +1574,44 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -1614,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>92</v>
@@ -1623,73 +1629,73 @@
         <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>16</v>
@@ -1697,22 +1703,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>16</v>
@@ -1720,22 +1726,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
@@ -1752,13 +1758,13 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>16</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
@@ -1798,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>114</v>
@@ -1807,6 +1813,29 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1387,7 +1393,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1404,341 +1410,341 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>8</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1795,22 +1801,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>16</v>
@@ -1818,24 +1824,70 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_120.xlsx
@@ -1701,7 +1701,7 @@
         <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>101</v>
@@ -1715,7 +1715,7 @@
         <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>100</v>
